--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H2">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I2">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J2">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="N2">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="O2">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="P2">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="Q2">
-        <v>4.381750774895428</v>
+        <v>5.175064329353113</v>
       </c>
       <c r="R2">
-        <v>4.381750774895428</v>
+        <v>46.57557896417801</v>
       </c>
       <c r="S2">
-        <v>0.05591755828333143</v>
+        <v>0.04615371645492657</v>
       </c>
       <c r="T2">
-        <v>0.05591755828333143</v>
+        <v>0.04615371645492657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H3">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I3">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J3">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="N3">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="O3">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="P3">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="Q3">
-        <v>2.846189050598049</v>
+        <v>3.550711525519889</v>
       </c>
       <c r="R3">
-        <v>2.846189050598049</v>
+        <v>31.956403729679</v>
       </c>
       <c r="S3">
-        <v>0.0363215413879842</v>
+        <v>0.03166695571928662</v>
       </c>
       <c r="T3">
-        <v>0.0363215413879842</v>
+        <v>0.03166695571928661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H4">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I4">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J4">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="N4">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="O4">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="P4">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="Q4">
-        <v>5.090162854126405</v>
+        <v>6.107385029524778</v>
       </c>
       <c r="R4">
-        <v>5.090162854126405</v>
+        <v>54.966465265723</v>
       </c>
       <c r="S4">
-        <v>0.06495793409748518</v>
+        <v>0.05446860154663721</v>
       </c>
       <c r="T4">
-        <v>0.06495793409748518</v>
+        <v>0.0544686015466372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H5">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I5">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J5">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7989233487226</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="N5">
-        <v>12.7989233487226</v>
+        <v>40.544276</v>
       </c>
       <c r="O5">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="P5">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="Q5">
-        <v>10.88695440720797</v>
+        <v>12.95379256885022</v>
       </c>
       <c r="R5">
-        <v>10.88695440720797</v>
+        <v>116.584133119652</v>
       </c>
       <c r="S5">
-        <v>0.1389334854645064</v>
+        <v>0.1155281618138613</v>
       </c>
       <c r="T5">
-        <v>0.1389334854645064</v>
+        <v>0.1155281618138613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H6">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I6">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J6">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.628380100635956</v>
+        <v>0.6319533333333333</v>
       </c>
       <c r="N6">
-        <v>0.628380100635956</v>
+        <v>1.89586</v>
       </c>
       <c r="O6">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="P6">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="Q6">
-        <v>0.5345094520550582</v>
+        <v>0.6057224250244444</v>
       </c>
       <c r="R6">
-        <v>0.5345094520550582</v>
+        <v>5.451501825219999</v>
       </c>
       <c r="S6">
-        <v>0.006821123558537753</v>
+        <v>0.005402124355517584</v>
       </c>
       <c r="T6">
-        <v>0.006821123558537753</v>
+        <v>0.005402124355517584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H7">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I7">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J7">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="N7">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="O7">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="P7">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="Q7">
-        <v>10.08178120834616</v>
+        <v>15.26199958307333</v>
       </c>
       <c r="R7">
-        <v>10.08178120834616</v>
+        <v>137.35799624766</v>
       </c>
       <c r="S7">
-        <v>0.1286582960280176</v>
+        <v>0.1361138638020418</v>
       </c>
       <c r="T7">
-        <v>0.1286582960280176</v>
+        <v>0.1361138638020418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H8">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I8">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J8">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="N8">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="O8">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="P8">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="Q8">
-        <v>6.548673523405676</v>
+        <v>10.47155250123667</v>
       </c>
       <c r="R8">
-        <v>6.548673523405676</v>
+        <v>94.24397251113</v>
       </c>
       <c r="S8">
-        <v>0.08357066666629057</v>
+        <v>0.09339034922593267</v>
       </c>
       <c r="T8">
-        <v>0.08357066666629057</v>
+        <v>0.09339034922593266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H9">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I9">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J9">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="N9">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="O9">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="P9">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="Q9">
-        <v>11.71173598100817</v>
+        <v>18.01154572042333</v>
       </c>
       <c r="R9">
-        <v>11.71173598100817</v>
+        <v>162.10391148381</v>
       </c>
       <c r="S9">
-        <v>0.1494589064875884</v>
+        <v>0.1606356406779735</v>
       </c>
       <c r="T9">
-        <v>0.1494589064875884</v>
+        <v>0.1606356406779735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H10">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I10">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J10">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.7989233487226</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="N10">
-        <v>12.7989233487226</v>
+        <v>40.544276</v>
       </c>
       <c r="O10">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="P10">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="Q10">
-        <v>25.04932343198595</v>
+        <v>38.20257376582666</v>
       </c>
       <c r="R10">
-        <v>25.04932343198595</v>
+        <v>343.82316389244</v>
       </c>
       <c r="S10">
-        <v>0.3196660592818682</v>
+        <v>0.340708954560335</v>
       </c>
       <c r="T10">
-        <v>0.3196660592818682</v>
+        <v>0.340708954560335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H11">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I11">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J11">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.628380100635956</v>
+        <v>0.6319533333333333</v>
       </c>
       <c r="N11">
-        <v>0.628380100635956</v>
+        <v>1.89586</v>
       </c>
       <c r="O11">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="P11">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="Q11">
-        <v>1.22982972474985</v>
+        <v>1.786361445933333</v>
       </c>
       <c r="R11">
-        <v>1.22982972474985</v>
+        <v>16.0772530134</v>
       </c>
       <c r="S11">
-        <v>0.01569442874439027</v>
+        <v>0.01593163184348776</v>
       </c>
       <c r="T11">
-        <v>0.01569442874439027</v>
+        <v>0.01593163184348776</v>
       </c>
     </row>
   </sheetData>
